--- a/Code/Results/Cases/Case_2_239/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_239/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.613967412472789</v>
+        <v>0.3145716436525561</v>
       </c>
       <c r="C2">
-        <v>0.3592776799285105</v>
+        <v>0.1665262621700663</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3038018546796906</v>
+        <v>0.1274432258134865</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0008364926124682093</v>
+        <v>0.002532364749321041</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.980475946457446</v>
+        <v>2.090370996350273</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9624622944893133</v>
+        <v>0.4804745443254319</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.602248488862891</v>
+        <v>0.2750764028036983</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.528687220146935</v>
+        <v>0.2960428588898765</v>
       </c>
       <c r="C3">
-        <v>0.3124337863609696</v>
+        <v>0.153672118406206</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.26241053043438</v>
+        <v>0.1164969290119231</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.0008441847712104633</v>
+        <v>0.002536723808828535</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.709663147192785</v>
+        <v>2.00773936403391</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8312462129492246</v>
+        <v>0.4490860054193035</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.520180818131017</v>
+        <v>0.2543205311393919</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4773413348999327</v>
+        <v>0.284972551378587</v>
       </c>
       <c r="C4">
-        <v>0.2842189001447366</v>
+        <v>0.145851506622364</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2375069291723833</v>
+        <v>0.1098447830212308</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008490221525960795</v>
+        <v>0.002539536973484404</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.546169209111994</v>
+        <v>1.957149556275454</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7522429280238896</v>
+        <v>0.4301845372416153</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4707860517817934</v>
+        <v>0.24175707665065</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4566403687598495</v>
+        <v>0.2805380868041567</v>
       </c>
       <c r="C5">
-        <v>0.2728405514793906</v>
+        <v>0.1426823597828957</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2274695530937692</v>
+        <v>0.1071510078412103</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.000851023699607981</v>
+        <v>0.002540717850618583</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.480151158433131</v>
+        <v>1.936568675502571</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7203911724647014</v>
+        <v>0.4225748587425926</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4508744406212202</v>
+        <v>0.2366823460395153</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4532155472089983</v>
+        <v>0.2798063763581951</v>
       </c>
       <c r="C6">
-        <v>0.2709578957288556</v>
+        <v>0.142157193866808</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2258090799894319</v>
+        <v>0.1067047281865001</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008513579256681192</v>
+        <v>0.002540916020977355</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.469222974414578</v>
+        <v>1.933153286165066</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7151215149394829</v>
+        <v>0.4213168686719655</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4475803342149973</v>
+        <v>0.2358423939677934</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4770612931623646</v>
+        <v>0.2849124361451629</v>
       </c>
       <c r="C7">
-        <v>0.2840649870961158</v>
+        <v>0.1458086946041703</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2373711339405133</v>
+        <v>0.109808385276466</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008490490217954164</v>
+        <v>0.002539552759336142</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.545276527173797</v>
+        <v>1.956871856662573</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7518120401529984</v>
+        <v>0.4300815353039127</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.470516679260399</v>
+        <v>0.2416884555524135</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5843312358318542</v>
+        <v>0.3081191378893493</v>
       </c>
       <c r="C8">
-        <v>0.3430008165919674</v>
+        <v>0.1620790726179848</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2894131355033309</v>
+        <v>0.1236544507638584</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0008391220834824345</v>
+        <v>0.002533839456257255</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.886462756635765</v>
+        <v>2.06184805438977</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.916862581958469</v>
+        <v>0.469574399872414</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5737241934874291</v>
+        <v>0.2678819765889671</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8043941005015256</v>
+        <v>0.3560749279322408</v>
       </c>
       <c r="C9">
-        <v>0.4638311970168161</v>
+        <v>0.1945690763870118</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3963951951815687</v>
+        <v>0.1513685845059172</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.000820487409249569</v>
+        <v>0.002523714749544259</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.582284717923628</v>
+        <v>2.268963317160797</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.255471294231086</v>
+        <v>0.5499939626989487</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7856701987568897</v>
+        <v>0.3207056048756911</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9745656323621574</v>
+        <v>0.3928271699457468</v>
       </c>
       <c r="C10">
-        <v>0.5572428942508338</v>
+        <v>0.2188165761376126</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4793734230915874</v>
+        <v>0.1720959088970417</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0008071866075960723</v>
+        <v>0.002516926268259536</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.117031056903869</v>
+        <v>2.422043684258085</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.517335698416588</v>
+        <v>0.6109384354423071</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9498200004818216</v>
+        <v>0.3604419534209882</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.054489878123945</v>
+        <v>0.4098828557474405</v>
       </c>
       <c r="C11">
-        <v>0.6011157260337541</v>
+        <v>0.229934030187195</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5184298309862641</v>
+        <v>0.1816098812060716</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0008011905394447026</v>
+        <v>0.002513977540907986</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.367247950383131</v>
+        <v>2.491914380318462</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.640334914822631</v>
+        <v>0.6390783707849437</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.027002609789832</v>
+        <v>0.3787288320221762</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.085180422845099</v>
+        <v>0.4163902788602911</v>
       </c>
       <c r="C12">
-        <v>0.6179632975454297</v>
+        <v>0.2341567894197567</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.53344227168526</v>
+        <v>0.1852251783181771</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007989249779645008</v>
+        <v>0.002512880853209496</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.463174154715745</v>
+        <v>2.51840849873787</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.687567936345204</v>
+        <v>0.6497948003174372</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.056655847909056</v>
+        <v>0.3856844972706952</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.078550657747002</v>
+        <v>0.4149866124205062</v>
       </c>
       <c r="C13">
-        <v>0.6143238517981047</v>
+        <v>0.2332467678121475</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5301985739007122</v>
+        <v>0.1844459952581801</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007994127328261145</v>
+        <v>0.002513116159819103</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.442459487795361</v>
+        <v>2.512700900956844</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.677364576264949</v>
+        <v>0.6474841269334206</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.050249422569777</v>
+        <v>0.3841850909106128</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.057005895284902</v>
+        <v>0.4104172451465331</v>
       </c>
       <c r="C14">
-        <v>0.6024968777817037</v>
+        <v>0.2302811805135434</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.519660237857039</v>
+        <v>0.1819070601558224</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0008010040670827062</v>
+        <v>0.002513886916939573</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.375115243546077</v>
+        <v>2.494093342385355</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.644207046855399</v>
+        <v>0.6399588027993559</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.029433261033788</v>
+        <v>0.3793004579884851</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.043866485528611</v>
+        <v>0.4076247424315227</v>
       </c>
       <c r="C15">
-        <v>0.5952841095903807</v>
+        <v>0.2284663509483664</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.513235296345357</v>
+        <v>0.1803535351861854</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0008019793692351041</v>
+        <v>0.002514361620451328</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.334023439161001</v>
+        <v>2.48270037140918</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.623985670117577</v>
+        <v>0.6353572153183791</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.016740298502285</v>
+        <v>0.3763125091470911</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9693982048854366</v>
+        <v>0.3917193505712078</v>
       </c>
       <c r="C16">
-        <v>0.5544063884410946</v>
+        <v>0.2180918025904077</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4768501714687048</v>
+        <v>0.1714758878288265</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0008075793289907594</v>
+        <v>0.002517121769641372</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.100833190571137</v>
+        <v>2.417482342895369</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.509383530717969</v>
+        <v>0.6091078486015533</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9448317961974695</v>
+        <v>0.359251146538341</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9244005404120514</v>
+        <v>0.3820484492137268</v>
       </c>
       <c r="C17">
-        <v>0.5297063502320327</v>
+        <v>0.2117498777247988</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4548874098426836</v>
+        <v>0.1660517506855328</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>0.0008110267915778164</v>
+        <v>0.002518850652008747</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.959677797577598</v>
+        <v>2.377534465191843</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.44013762381752</v>
+        <v>0.5931116993140506</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9014046529119639</v>
+        <v>0.3488388745385649</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8987512746860205</v>
+        <v>0.376517691694346</v>
       </c>
       <c r="C18">
-        <v>0.5156269891474494</v>
+        <v>0.208110355222118</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4423759248101859</v>
+        <v>0.1629399113835674</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0008130150024652479</v>
+        <v>0.002519858186046349</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.879132281057878</v>
+        <v>2.354579376673712</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.400667399815404</v>
+        <v>0.5839502537322119</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8766584010856064</v>
+        <v>0.3428698025638468</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8901049481666803</v>
+        <v>0.3746505041296189</v>
       </c>
       <c r="C19">
-        <v>0.5108808415896249</v>
+        <v>0.2068794724586667</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4381595455843907</v>
+        <v>0.1618876565633229</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>0.0008136891707329046</v>
+        <v>0.002520201577447795</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.851966490445875</v>
+        <v>2.346810874147138</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.387362185206996</v>
+        <v>0.5808550450563246</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8683177343268014</v>
+        <v>0.340852160402946</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9291661519163199</v>
+        <v>0.3830746509093785</v>
       </c>
       <c r="C20">
-        <v>0.5323222787206987</v>
+        <v>0.2124241372551694</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4572126349541747</v>
+        <v>0.1666283309074359</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0008106592718673297</v>
+        <v>0.002518665251713153</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.97463625592448</v>
+        <v>2.381784706607078</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.447471224894997</v>
+        <v>0.5948104638121663</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9060031038059222</v>
+        <v>0.3499452264707017</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.063322030479611</v>
+        <v>0.411758051613333</v>
       </c>
       <c r="C21">
-        <v>0.605964092045042</v>
+        <v>0.2311518951157723</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5227492629315336</v>
+        <v>0.1826524632869919</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>0.0008005365416616068</v>
+        <v>0.002513659987029533</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.394862509441168</v>
+        <v>2.499557851185074</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.65392756458067</v>
+        <v>0.6421675273289793</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.035535352852044</v>
+        <v>0.3807343522958817</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.153513712011176</v>
+        <v>0.4307889593627294</v>
       </c>
       <c r="C22">
-        <v>0.6554766524663478</v>
+        <v>0.2434664332441798</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5668984316549484</v>
+        <v>0.1931985427579619</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007939484260842882</v>
+        <v>0.002510504878991324</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.676447800873575</v>
+        <v>2.576737858826675</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.792737524942083</v>
+        <v>0.6734707377963218</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.122711250386928</v>
+        <v>0.4010367301351678</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.105123410789247</v>
+        <v>0.4206056392731057</v>
       </c>
       <c r="C23">
-        <v>0.6289112449697711</v>
+        <v>0.2368869856308322</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5432020215958886</v>
+        <v>0.1875630742808312</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307915566</v>
       </c>
       <c r="G23">
-        <v>0.0007974631260121134</v>
+        <v>0.002512178231351757</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.525461739124864</v>
+        <v>2.53552570057002</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.718260964773805</v>
+        <v>0.6567311480501417</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.075929481841442</v>
+        <v>0.3901843286091804</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9270109368773944</v>
+        <v>0.3826106142814467</v>
       </c>
       <c r="C24">
-        <v>0.5311392431228228</v>
+        <v>0.2121192841914592</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4561610443954081</v>
+        <v>0.1663676385555561</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902313</v>
       </c>
       <c r="G24">
-        <v>0.0008108254079157107</v>
+        <v>0.002518749028863915</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.967871660348806</v>
+        <v>2.379863136857438</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.444154651568311</v>
+        <v>0.5940423435560263</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.903923461853168</v>
+        <v>0.3494449915993414</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7435742091864768</v>
+        <v>0.3428368345834656</v>
       </c>
       <c r="C25">
-        <v>0.4304425968916803</v>
+        <v>0.1857149904068365</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3667940155999574</v>
+        <v>0.1438086317641307</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347308</v>
       </c>
       <c r="G25">
-        <v>0.0008254508486331392</v>
+        <v>0.002526339026249512</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.390483135741874</v>
+        <v>2.212783439988314</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.161885683414425</v>
+        <v>0.5279151188793207</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7270592649157592</v>
+        <v>0.3062554185808253</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_239/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_239/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3145716436525561</v>
+        <v>0.6139674124727037</v>
       </c>
       <c r="C2">
-        <v>0.1665262621700663</v>
+        <v>0.3592776799285389</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1274432258134865</v>
+        <v>0.3038018546797119</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002532364749321041</v>
+        <v>0.0008364926123964274</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.090370996350273</v>
+        <v>2.980475946457446</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4804745443254319</v>
+        <v>0.9624622944893133</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2750764028036983</v>
+        <v>0.6022484888628838</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2960428588898765</v>
+        <v>0.5286872201467645</v>
       </c>
       <c r="C3">
-        <v>0.153672118406206</v>
+        <v>0.3124337863613107</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1164969290119231</v>
+        <v>0.2624105304344582</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002536723808828535</v>
+        <v>0.000844184771235712</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.00773936403391</v>
+        <v>2.7096631471927</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4490860054193035</v>
+        <v>0.8312462129493099</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2543205311393919</v>
+        <v>0.5201808181310099</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.284972551378587</v>
+        <v>0.4773413349000464</v>
       </c>
       <c r="C4">
-        <v>0.145851506622364</v>
+        <v>0.2842189001446229</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1098447830212308</v>
+        <v>0.2375069291723548</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002539536973484404</v>
+        <v>0.0008490221526531035</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.957149556275454</v>
+        <v>2.546169209112037</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4301845372416153</v>
+        <v>0.7522429280238043</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.24175707665065</v>
+        <v>0.4707860517817934</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2805380868041567</v>
+        <v>0.4566403687599063</v>
       </c>
       <c r="C5">
-        <v>0.1426823597828957</v>
+        <v>0.2728405514793621</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1071510078412103</v>
+        <v>0.2274695530937976</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002540717850618583</v>
+        <v>0.0008510236995298239</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.936568675502571</v>
+        <v>2.480151158433145</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4225748587425926</v>
+        <v>0.7203911724646446</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2366823460395153</v>
+        <v>0.4508744406212486</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2798063763581951</v>
+        <v>0.4532155472088277</v>
       </c>
       <c r="C6">
-        <v>0.142157193866808</v>
+        <v>0.270957895729083</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1067047281865001</v>
+        <v>0.2258090799894674</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002540916020977355</v>
+        <v>0.000851357925532495</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.933153286165066</v>
+        <v>2.469222974414606</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4213168686719655</v>
+        <v>0.7151215149395114</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2358423939677934</v>
+        <v>0.4475803342149902</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2849124361451629</v>
+        <v>0.4770612931625635</v>
       </c>
       <c r="C7">
-        <v>0.1458086946041703</v>
+        <v>0.284064987096059</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.109808385276466</v>
+        <v>0.2373711339404707</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002539552759336142</v>
+        <v>0.0008490490217776259</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.956871856662573</v>
+        <v>2.545276527173854</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4300815353039127</v>
+        <v>0.7518120401529416</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2416884555524135</v>
+        <v>0.4705166792604061</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3081191378893493</v>
+        <v>0.5843312358318542</v>
       </c>
       <c r="C8">
-        <v>0.1620790726179848</v>
+        <v>0.3430008165922516</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1236544507638584</v>
+        <v>0.2894131355033451</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002533839456257255</v>
+        <v>0.0008391220834830666</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.06184805438977</v>
+        <v>2.886462756635765</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.469574399872414</v>
+        <v>0.9168625819582985</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2678819765889671</v>
+        <v>0.5737241934874362</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3560749279322408</v>
+        <v>0.8043941005015256</v>
       </c>
       <c r="C9">
-        <v>0.1945690763870118</v>
+        <v>0.4638311970168729</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1513685845059172</v>
+        <v>0.3963951951815616</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002523714749544259</v>
+        <v>0.0008204874092367515</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.268963317160797</v>
+        <v>3.582284717923685</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5499939626989487</v>
+        <v>1.255471294231029</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3207056048756911</v>
+        <v>0.785670198756911</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3928271699457468</v>
+        <v>0.9745656323622143</v>
       </c>
       <c r="C10">
-        <v>0.2188165761376126</v>
+        <v>0.557242894250976</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1720959088970417</v>
+        <v>0.4793734230916158</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002516926268259536</v>
+        <v>0.0008071866076361787</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.422043684258085</v>
+        <v>4.117031056903812</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6109384354423071</v>
+        <v>1.517335698416503</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3604419534209882</v>
+        <v>0.9498200004818358</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4098828557474405</v>
+        <v>1.054489878124002</v>
       </c>
       <c r="C11">
-        <v>0.229934030187195</v>
+        <v>0.6011157260342372</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1816098812060716</v>
+        <v>0.5184298309862498</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002513977540907986</v>
+        <v>0.0008011905394379695</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.491914380318462</v>
+        <v>4.367247950383188</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6390783707849437</v>
+        <v>1.640334914822546</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3787288320221762</v>
+        <v>1.027002609789797</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4163902788602911</v>
+        <v>1.085180422845184</v>
       </c>
       <c r="C12">
-        <v>0.2341567894197567</v>
+        <v>0.6179632975456286</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1852251783181771</v>
+        <v>0.5334422716852529</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002512880853209496</v>
+        <v>0.0007989249780517483</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.51840849873787</v>
+        <v>4.463174154715745</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6497948003174372</v>
+        <v>1.687567936345175</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3856844972706952</v>
+        <v>1.056655847909028</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4149866124205062</v>
+        <v>1.07855065774703</v>
       </c>
       <c r="C13">
-        <v>0.2332467678121475</v>
+        <v>0.614323851797991</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1844459952581801</v>
+        <v>0.5301985739007478</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002513116159819103</v>
+        <v>0.0007994127328197036</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.512700900956844</v>
+        <v>4.442459487795361</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6474841269334206</v>
+        <v>1.677364576264949</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3841850909106128</v>
+        <v>1.050249422569813</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4104172451465331</v>
+        <v>1.057005895284448</v>
       </c>
       <c r="C14">
-        <v>0.2302811805135434</v>
+        <v>0.6024968777812774</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1819070601558224</v>
+        <v>0.5196602378570816</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002513886916939573</v>
+        <v>0.0008010040672628085</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.494093342385355</v>
+        <v>4.37511524354619</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6399588027993559</v>
+        <v>1.644207046855428</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3793004579884851</v>
+        <v>1.029433261033773</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4076247424315227</v>
+        <v>1.043866485528838</v>
       </c>
       <c r="C15">
-        <v>0.2284663509483664</v>
+        <v>0.5952841095903239</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1803535351861854</v>
+        <v>0.5132352963452931</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.002514361620451328</v>
+        <v>0.000801979369181947</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.48270037140918</v>
+        <v>4.334023439161115</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6353572153183791</v>
+        <v>1.623985670117605</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3763125091470911</v>
+        <v>1.016740298502299</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3917193505712078</v>
+        <v>0.9693982048855503</v>
       </c>
       <c r="C16">
-        <v>0.2180918025904077</v>
+        <v>0.5544063884406967</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1714758878288265</v>
+        <v>0.4768501714686977</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002517121769641372</v>
+        <v>0.0008075793288902338</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.417482342895369</v>
+        <v>4.100833190571137</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6091078486015533</v>
+        <v>1.509383530718139</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.359251146538341</v>
+        <v>0.9448317961974624</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3820484492137268</v>
+        <v>0.9244005404122788</v>
       </c>
       <c r="C17">
-        <v>0.2117498777247988</v>
+        <v>0.5297063502320611</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1660517506855328</v>
+        <v>0.4548874098427049</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.002518850652008747</v>
+        <v>0.0008110267917466464</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.377534465191843</v>
+        <v>3.959677797577655</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5931116993140506</v>
+        <v>1.440137623817492</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3488388745385649</v>
+        <v>0.9014046529120208</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.376517691694346</v>
+        <v>0.8987512746859068</v>
       </c>
       <c r="C18">
-        <v>0.208110355222118</v>
+        <v>0.5156269891471936</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1629399113835674</v>
+        <v>0.4423759248101859</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002519858186046349</v>
+        <v>0.0008130150024645566</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.354579376673712</v>
+        <v>3.879132281057878</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5839502537322119</v>
+        <v>1.400667399815546</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3428698025638468</v>
+        <v>0.8766584010856064</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3746505041296189</v>
+        <v>0.8901049481668792</v>
       </c>
       <c r="C19">
-        <v>0.2068794724586667</v>
+        <v>0.5108808415901649</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1618876565633229</v>
+        <v>0.4381595455844334</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002520201577447795</v>
+        <v>0.0008136891707389648</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.346810874147138</v>
+        <v>3.851966490445818</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5808550450563246</v>
+        <v>1.387362185206939</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.340852160402946</v>
+        <v>0.8683177343268085</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3830746509093785</v>
+        <v>0.9291661519163199</v>
       </c>
       <c r="C20">
-        <v>0.2124241372551694</v>
+        <v>0.5323222787206987</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1666283309074359</v>
+        <v>0.4572126349541747</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002518665251713153</v>
+        <v>0.00081065927196443</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.381784706607078</v>
+        <v>3.974636255924423</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5948104638121663</v>
+        <v>1.447471224894969</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3499452264707017</v>
+        <v>0.9060031038059364</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.411758051613333</v>
+        <v>1.063322030479839</v>
       </c>
       <c r="C21">
-        <v>0.2311518951157723</v>
+        <v>0.6059640920454115</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1826524632869919</v>
+        <v>0.5227492629315904</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002513659987029533</v>
+        <v>0.0008005365418550684</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.499557851185074</v>
+        <v>4.394862509441168</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6421675273289793</v>
+        <v>1.653927564580783</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3807343522958817</v>
+        <v>1.035535352852072</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4307889593627294</v>
+        <v>1.153513712011204</v>
       </c>
       <c r="C22">
-        <v>0.2434664332441798</v>
+        <v>0.6554766524663194</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1931985427579619</v>
+        <v>0.5668984316550265</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002510504878991324</v>
+        <v>0.0007939484259825508</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.576737858826675</v>
+        <v>4.676447800873575</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6734707377963218</v>
+        <v>1.792737524942254</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4010367301351678</v>
+        <v>1.122711250386956</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4206056392731057</v>
+        <v>1.105123410788849</v>
       </c>
       <c r="C23">
-        <v>0.2368869856308322</v>
+        <v>0.628911244969288</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1875630742808312</v>
+        <v>0.5432020215958602</v>
       </c>
       <c r="F23">
-        <v>0.7472568307915566</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002512178231351757</v>
+        <v>0.0007974631259564102</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.53552570057002</v>
+        <v>4.525461739124978</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6567311480501417</v>
+        <v>1.718260964773862</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3901843286091804</v>
+        <v>1.075929481841477</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3826106142814467</v>
+        <v>0.9270109368775081</v>
       </c>
       <c r="C24">
-        <v>0.2121192841914592</v>
+        <v>0.5311392431235049</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1663676385555561</v>
+        <v>0.456161044395472</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902313</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002518749028863915</v>
+        <v>0.0008108254079093102</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.379863136857438</v>
+        <v>3.967871660348862</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5940423435560263</v>
+        <v>1.44415465156834</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3494449915993414</v>
+        <v>0.9039234618531822</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3428368345834656</v>
+        <v>0.7435742091867326</v>
       </c>
       <c r="C25">
-        <v>0.1857149904068365</v>
+        <v>0.4304425968917087</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1438086317641307</v>
+        <v>0.3667940156000498</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347308</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002526339026249512</v>
+        <v>0.0008254508485515675</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.212783439988314</v>
+        <v>3.390483135741903</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5279151188793207</v>
+        <v>1.161885683414596</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3062554185808253</v>
+        <v>0.7270592649157663</v>
       </c>
       <c r="N25">
         <v>0</v>
